--- a/resources/ExcelsheetData/TaxonomyManagementModuleTest.xlsx
+++ b/resources/ExcelsheetData/TaxonomyManagementModuleTest.xlsx
@@ -1,21 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="verificationOfCategoryUpdation" sheetId="1" r:id="rId1"/>
+    <sheet name="verificationOfCategoryRemove" sheetId="2" r:id="rId2"/>
+    <sheet name="verificationCategoryImageUpload" sheetId="3" r:id="rId3"/>
+    <sheet name="verificationRevisionHistory" sheetId="4" r:id="rId4"/>
+    <sheet name="verifyDisplayRecordsChosenTax" sheetId="5" r:id="rId5"/>
+    <sheet name="verifyOfAttributListPage" sheetId="6" r:id="rId6"/>
+    <sheet name="verifyOfCreateNewAttribute" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+  <si>
+    <t>Sl. No</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>automationUser</t>
+  </si>
+  <si>
+    <t>unilog123##</t>
+  </si>
+  <si>
+    <t>verificationOfCategoryUpdation</t>
+  </si>
+  <si>
+    <t>TaxonomyName</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Exp Message</t>
+  </si>
+  <si>
+    <t>AutomationTestTaxonomy</t>
+  </si>
+  <si>
+    <t>AutomationTestCat1</t>
+  </si>
+  <si>
+    <t>Category Updated Successfully</t>
+  </si>
+  <si>
+    <t>TC_T-Mgmt_32</t>
+  </si>
+  <si>
+    <t>AlertText</t>
+  </si>
+  <si>
+    <t>Are sure you want remove this Category ?</t>
+  </si>
+  <si>
+    <t>TC_T-Mgmt_33</t>
+  </si>
+  <si>
+    <t>Following are changes made for Category -</t>
+  </si>
+  <si>
+    <t>Exp History Page Title</t>
+  </si>
+  <si>
+    <t>Mgmt_39</t>
+  </si>
+  <si>
+    <t>Table Headers</t>
+  </si>
+  <si>
+    <t>Action,Sl No.,Attribute Name,Attribute Desc,Language Code,Language Name</t>
+  </si>
+  <si>
+    <t>Mgmt_40</t>
+  </si>
+  <si>
+    <t>TestId</t>
+  </si>
+  <si>
+    <t>UserNAme</t>
+  </si>
+  <si>
+    <t>AttributeName</t>
+  </si>
+  <si>
+    <t>Attribute Description</t>
+  </si>
+  <si>
+    <t>TC_T-Mgmt_41_42</t>
+  </si>
+  <si>
+    <t>AutomationTestAttribute</t>
+  </si>
+  <si>
+    <t>AutomationTest Attribute Dewscription</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +122,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +144,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +471,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>